--- a/Reportes/usuarios.xlsx
+++ b/Reportes/usuarios.xlsx
@@ -28,7 +28,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Times"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="12"/>

--- a/Reportes/usuarios.xlsx
+++ b/Reportes/usuarios.xlsx
@@ -9,9 +9,7 @@
   <sheets>
     <sheet name="Listado Usuarios" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Listado Usuarios'!$C$3:$H$7</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -154,7 +152,7 @@
     <tableColumn id="7" name="Telefono"/>
     <tableColumn id="8" name="Cargo"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -455,12 +453,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -500,67 +498,67 @@
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>Diego</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Arteaga</t>
+          <t>Pérez</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11111111-1</t>
+          <t>12345678-9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>diego@example.com</t>
+          <t>juan.perez@example.com</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>911111111</v>
+        <v>987654321</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DEV</t>
+          <t>NS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>Annabella</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Arteaga</t>
+          <t>Pérez</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22222222-2</t>
+          <t>11111111-1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>beli@example.com</t>
+          <t>juan@example.com</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>922222222</v>
+        <v>987654322</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>NS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Diego</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -570,55 +568,54 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33333333-3</t>
+          <t>22222222-2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>pablo@example.com</t>
+          <t>diego@example.com</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>933333333</v>
+        <v>912341234</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>UX</t>
+          <t>PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Matias</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Figueroa</t>
+          <t>Avila</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>44444444-4</t>
+          <t>99999999-9</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>mati@example.com</t>
+          <t>mario@example.com</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>944444444</v>
+        <v>999999999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>DEVOPS</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C3:H7"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
